--- a/Employee_Reports35/Cletes Albert Perera Q0130.xlsx
+++ b/Employee_Reports35/Cletes Albert Perera Q0130.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1418,11 +1418,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">

--- a/Employee_Reports35/Cletes Albert Perera Q0130.xlsx
+++ b/Employee_Reports35/Cletes Albert Perera Q0130.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1418,11 +1418,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
